--- a/网站列表_样例数据.xlsx
+++ b/网站列表_样例数据.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\www-project202310\data_20250506\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\www-project202310\data_20250506\website_keyword_analysis_python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A613834-CB82-418E-AAFE-6EF4A646DF1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B497B4-AFC8-4745-95C4-DFE4E32E0386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="shaoyang_icp_20250324" sheetId="1" r:id="rId1"/>
+    <sheet name="data_list" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">shaoyang_icp_20250324!$A$1:$D$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data_list!$A$1:$D$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -471,7 +471,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
